--- a/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
+++ b/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D16228-4A6E-3742-A932-3984F9022971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD2F4C-0760-A748-BE0F-FDF56BE06501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -411,6 +408,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
@@ -956,16 +956,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,7 +977,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
@@ -1204,16 +1204,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="11">
         <v>0</v>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,17 +1530,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="11">
         <v>0.14000000000000001</v>
@@ -1644,8 +1644,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DDD9-C6F2-7644-AFC0-5BC228DDA734}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="32">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="32">
+        <v>4</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="32">
+        <v>4</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1656,612 +1969,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>4</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>4</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>4</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>4</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="36" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="38" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="40" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="40" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="33">
-        <v>4</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="33">
-        <v>4</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="33">
-        <v>4</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="33">
-        <v>4</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="33">
-        <v>4</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
+++ b/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD2F4C-0760-A748-BE0F-FDF56BE06501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BDD2B-C8A6-494E-8DD5-8B5F1F045233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-Sprint 1" sheetId="3" r:id="rId1"/>
-    <sheet name="D1-Sprint 2" sheetId="4" r:id="rId2"/>
-    <sheet name="D2-Sprint 3" sheetId="1" r:id="rId3"/>
-    <sheet name="D2-Sprint 4" sheetId="2" r:id="rId4"/>
-    <sheet name="D3-Sprint 5" sheetId="5" r:id="rId5"/>
-    <sheet name="D3-Sprint 6" sheetId="6" r:id="rId6"/>
+    <sheet name="D2-Sprint 2" sheetId="1" r:id="rId2"/>
+    <sheet name="D2-Sprint 3" sheetId="2" r:id="rId3"/>
+    <sheet name="D3-Sprint 4" sheetId="5" r:id="rId4"/>
+    <sheet name="D3-Sprint 5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
   <si>
     <t>Sprint Goal</t>
   </si>
@@ -973,254 +972,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34419BF5-2540-6C49-ADAF-DDB784C8E83A}">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="59.83203125" customWidth="1"/>
-    <col min="2" max="2" width="95.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.33203125" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="M8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="M10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="M11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC36FCF-9F37-4AC5-B7F3-1DC0EDBEC864}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -1292,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="11">
         <v>0</v>
@@ -1470,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E3A477-5022-4EBF-A5F0-EFD4BBDA3FE6}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -1540,7 +1291,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="11">
         <v>0.14000000000000001</v>
@@ -1640,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DDD9-C6F2-7644-AFC0-5BC228DDA734}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -1953,12 +1704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
+++ b/Deliverable_3/Blackbear-Consultants_Deliverable_3_SprintBacklog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BDD2B-C8A6-494E-8DD5-8B5F1F045233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C80F2-6E1E-8D4B-86A0-8FEA6E051E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15540" activeTab="4" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-Sprint 1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>Sprint Goal</t>
   </si>
@@ -112,9 +112,6 @@
     <t>As a user (parent), I want my child to learn shapes so that they easily recognize and understand shapes.</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>As a user (child), I want the app games to give me immediate feedback, so I can correct my mistakes early.</t>
   </si>
   <si>
@@ -131,6 +128,36 @@
   </si>
   <si>
     <t>Update documents, update kanban board, and create focus group documents, start coding</t>
+  </si>
+  <si>
+    <t>Create Login, statistics, and Game selection functionality as well as finishing documentation.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to feel reaffirmed even when I get things wrong, so that I feel motivated to continue learning.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I need the ability to continue teaching my children what they learned in school without the use of real world objects, because real world objects are expensive.</t>
+  </si>
+  <si>
+    <t>Sprint Goal 5</t>
+  </si>
+  <si>
+    <t>Sprint Goal 4</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Story Points Completed</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want the game to be locked in when I hand it to the child, so they cannot access any settings or sensitive information in the app</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I need to be able to access the data collected from the application because of updating and tracking goals and trials for the client.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I need to be able to access my child’s data because of being able to access up to date information on how my child is performing in school and at home.</t>
   </si>
 </sst>
 </file>
@@ -221,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,12 +341,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -409,6 +445,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488A9DCE-42DD-074C-B76C-FB872E3590EF}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1097,7 @@
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>12</v>
@@ -1282,7 +1345,7 @@
     </row>
     <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>21</v>
@@ -1393,153 +1456,782 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DDD9-C6F2-7644-AFC0-5BC228DDA734}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="47">
         <v>4</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="D2" s="48">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="32">
+        <v>4</v>
+      </c>
+      <c r="G2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32">
+      <c r="C3" s="44">
         <v>4</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="D3" s="49">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32">
+        <v>4</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="C4" s="50">
+        <v>3</v>
+      </c>
+      <c r="D4" s="48">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32">
         <v>4</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="G4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="32">
+        <v>26</v>
+      </c>
+      <c r="C5" s="44">
+        <v>6</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="32">
         <v>4</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="G5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="32">
+        <v>4</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="44">
+        <v>4</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="32">
+        <v>4</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="44">
+        <v>4</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="32">
+        <v>4</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="44">
+        <v>4</v>
+      </c>
+      <c r="D9" s="32">
+        <v>2</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="32">
+        <v>4</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="O13" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="44">
+        <v>6</v>
+      </c>
+      <c r="D2" s="45">
         <v>4</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="32">
+        <v>5</v>
+      </c>
+      <c r="G2" s="46">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="46">
+        <v>0</v>
+      </c>
+      <c r="K2" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="46">
+        <v>0</v>
+      </c>
+      <c r="M2" s="46">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="44">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="32">
+        <v>5</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="46">
+        <v>0</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="44">
+        <v>4</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="32">
+        <v>5</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -1547,8 +2239,10 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1562,8 +2256,10 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -1577,8 +2273,10 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1592,8 +2290,10 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -1607,8 +2307,10 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1620,12 +2322,14 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1637,14 +2341,16 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="O12" s="38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1656,14 +2362,16 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="40" t="s">
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1675,14 +2383,16 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="O14" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -1694,323 +2404,10 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="32">
-        <v>4</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="32">
-        <v>4</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="32">
-        <v>4</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="32">
-        <v>4</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="32">
-        <v>4</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38" t="s">
         <v>10</v>
       </c>
     </row>
